--- a/BalanceSheet/TSCO_bal.xlsx
+++ b/BalanceSheet/TSCO_bal.xlsx
@@ -552,19 +552,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-301407000.0</v>
+        <v>2085000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>131770000.0</v>
+        <v>1783000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-226532000.0</v>
+        <v>1915000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>217405000.0</v>
+        <v>1689000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-303132000.0</v>
+        <v>1906000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1602781000.0</v>
@@ -1990,19 +1990,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>205828000.0</v>
+        <v>1182000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-80815000.0</v>
+        <v>976000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>53214000.0</v>
+        <v>1057000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>115759000.0</v>
+        <v>1004000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>244902000.0</v>
+        <v>888000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>643036000.0</v>
@@ -3460,19 +3460,19 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>20158000.0</v>
+        <v>-11000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>-28005000.0</v>
+        <v>-32000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>9285000.0</v>
+        <v>-4000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>-14662000.0</v>
+        <v>-13000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>1643000.0</v>
+        <v>2000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>153000.0</v>
